--- a/biology/Botanique/Cystoseira_foeniculacea/Cystoseira_foeniculacea.xlsx
+++ b/biology/Botanique/Cystoseira_foeniculacea/Cystoseira_foeniculacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cystoseira foeniculacea est une espèce d’algues brunes de la famille des Sargassaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Synonymes hétérotypiques, selon Algaebase[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Synonymes hétérotypiques, selon Algaebase :
 Phyllacantha concatenata (Linnaeus) Kützing
 Fucus concatenatus Linnaeus, 1753
 Fucus abrotanifolius Linnaeus, 1753
@@ -550,9 +564,11 @@
           <t>Sous-espèces, formes et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Worms[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Worms :
 Forme Cystoseira foeniculacea f. latiramosa (Ercegovic) A.Gómez Garreta, M.C.Barceló, M.A.Ribera &amp; J.R.Lluch, 2001
 Forme Cystoseira foeniculacea f. schiffneri (Hamel) Gómez Garreta, Barceló, Ribera &amp; Rull Lluch, 2001
 Forme Cystoseira foeniculacea f. tenuiramosa (Ercegovic) A.Gómez Garreta, M.C.Barceló, M.A.Ribera &amp; J.Rull Lluch, 2001</t>
@@ -583,9 +599,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de distribution s'étend entre les côtes de l'Europe de l'ouest, les îles de la Macaronésie et les côtes de la mer Méditerranée[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de distribution s'étend entre les côtes de l'Europe de l'ouest, les îles de la Macaronésie et les côtes de la mer Méditerranée.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce se développant dans l'étage infralittoral, en milieux abrités[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce se développant dans l'étage infralittoral, en milieux abrités.
 </t>
         </is>
       </c>
